--- a/DATA/mid.xlsx
+++ b/DATA/mid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exiompartnerscom-my.sharepoint.com/personal/salaheddine_abdelhadi_exiompartners_com/Documents/Bureau/Stage_MCMC/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CBCBBC91-A7D9-441E-B12B-63ED773F201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE10E58E-0AFD-4D3F-9BFA-CA6A75A77464}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CBCBBC91-A7D9-441E-B12B-63ED773F201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{045EAC31-43D2-4DDA-96DB-0E84361A0137}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7240" yWindow="3260" windowWidth="12360" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date exp</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>120.0%</t>
-  </si>
-  <si>
-    <t>4 Nov 2022</t>
   </si>
   <si>
     <t>18 Nov 2022</t>
@@ -960,7 +957,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,8 +1060,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3" s="2">
+        <v>44869</v>
       </c>
       <c r="B3">
         <v>6272.88</v>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>6276.72</v>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>6278.31</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6281.73</v>
@@ -1299,7 +1296,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6297.36</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>6188.96</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>6220.03</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>6245.46</v>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>6282.6</v>
